--- a/Practicals/Prac01Sorting/DSAsorts_simulation.xlsx
+++ b/Practicals/Prac01Sorting/DSAsorts_simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thejanakottawatta/Documents/COMP1002DSA/Practicals/Prac01Sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E05FF7-8A12-C04D-8A46-9ECAD0E60B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409FDAF-588A-D44B-95A9-1227FDA1D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{FEBB7336-C888-B54B-8F3A-959ECFB69B2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FEBB7336-C888-B54B-8F3A-959ECFB69B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BA32B8-A84C-6941-B152-C47A7284C671}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="223" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Practicals/Prac01Sorting/DSAsorts_simulation.xlsx
+++ b/Practicals/Prac01Sorting/DSAsorts_simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thejanakottawatta/Documents/COMP1002DSA/Practicals/Prac01Sorting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6409FDAF-588A-D44B-95A9-1227FDA1D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94132983-05C2-5942-828F-C19C3BFF27CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FEBB7336-C888-B54B-8F3A-959ECFB69B2D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{FEBB7336-C888-B54B-8F3A-959ECFB69B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1790,7 +1790,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="223" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
